--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_4_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_4_square_0_.xlsx
@@ -599,14 +599,14 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.06777478303023, 74.67217749630596]</t>
+          <t>[53.14777310142459, 74.5921791779116]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>1.332267629550188e-15</v>
       </c>
       <c r="P2" t="n">
         <v>1.528342372016657</v>
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.09842494767416, 56.9017989435803]</t>
+          <t>[43.098336248067596, 56.90188764318687]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,14 +685,14 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[52.517042008581726, 76.05501549883273]</t>
+          <t>[53.07741293239641, 75.49464457501804]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.398081733190338e-14</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="O3" t="n">
-        <v>2.398081733190338e-14</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="P3" t="n">
         <v>1.842816111114733</v>
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.96689922676768, 55.20463211056823]</t>
+          <t>[41.96183359681138, 55.209697740524525]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -771,21 +771,21 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[52.08146035290228, 76.45570279828893]</t>
+          <t>[52.399766137121645, 76.13739701406956]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>7.616129948928574e-14</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>7.616129948928574e-14</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="P4" t="n">
         <v>2.031500354573581</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.8302371615508122, 2.232763547596349]</t>
+          <t>[1.8428161111147343, 2.220184598032427]</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.52146680140784, 57.5790988073809]</t>
+          <t>[44.51835659427349, 57.58220901451525]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -812,10 +812,10 @@
         <v>15.69213213213225</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.94930930930943</v>
+        <v>14.99573573573585</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.43495495495508</v>
+        <v>16.38852852852866</v>
       </c>
     </row>
     <row r="5">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[51.593361158639375, 76.53743424829293]</t>
+          <t>[51.582113342013784, 76.54868206491851]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.77191594730175e-13</v>
+        <v>1.825206652483757e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.77191594730175e-13</v>
+        <v>1.825206652483757e-13</v>
       </c>
       <c r="P5" t="n">
         <v>2.220184598032427</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.87532901245197, 55.7314300656998]</t>
+          <t>[42.87515256901382, 55.73160650913795]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,14 +943,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[50.992569611841176, 76.14431280283817]</t>
+          <t>[51.08086380268998, 76.05601861198937]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.957634137601417e-13</v>
+        <v>2.364775042451583e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>2.957634137601417e-13</v>
+        <v>2.364775042451583e-13</v>
       </c>
       <c r="P6" t="n">
         <v>2.484342538874812</v>
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.26265470169656, 56.080751297337116]</t>
+          <t>[43.266828036950486, 56.07657796208319]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.51870167882889, 75.09927901039488]</t>
+          <t>[51.64426172206817, 74.9737189671556]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.218847493575595e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>4.218847493575595e-14</v>
+        <v>2.97539770599542e-14</v>
       </c>
       <c r="P7" t="n">
         <v>2.622710984077965</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.394588052021504, 56.230078282936745]</t>
+          <t>[43.39725752129752, 56.22740881366073]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,21 +1115,21 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[52.00056442963556, 73.8349147561363]</t>
+          <t>[51.95048350600315, 73.8849956797687]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>3.996802888650564e-15</v>
+        <v>4.662936703425657e-15</v>
       </c>
       <c r="P8" t="n">
         <v>2.899447874484274</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.698184681461504, 3.1007110675070435]</t>
+          <t>[2.7107636310254275, 3.08813211794312]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.54963587597331, 56.43608534143209]</t>
+          <t>[43.55040145407687, 56.43531976332853]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1156,10 +1156,10 @@
         <v>12.48870870870881</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.74588588588598</v>
+        <v>11.79231231231241</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.23153153153164</v>
+        <v>13.18510510510521</v>
       </c>
     </row>
     <row r="9">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[52.03379820538812, 72.24708060929302]</t>
+          <t>[52.36192544180358, 71.91895337287757]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.012658420559582</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.994205765175764, 55.83160515812531]</t>
+          <t>[42.9956065947495, 55.830204328551574]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[52.040166450031464, 73.6298786333232]</t>
+          <t>[52.745301513467325, 72.92474356988734]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O10" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="P10" t="n">
         <v>-2.918316298830158</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.94656752251301, 57.682461997702134]</t>
+          <t>[44.9458167579161, 57.68321276229904]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[52.002523028728184, 76.06465400784188]</t>
+          <t>[52.15533663150874, 75.91184040506133]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.639932965095795e-14</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="O11" t="n">
-        <v>5.639932965095795e-14</v>
+        <v>3.708144902248023e-14</v>
       </c>
       <c r="P11" t="n">
         <v>-2.503210963220696</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.234227233347085, 56.95728649769764]</t>
+          <t>[44.23652777842656, 56.95498595261816]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,21 +1459,21 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[52.16151904388714, 77.28221698864321]</t>
+          <t>[52.15418165874416, 77.28955437378619]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.603162047558726e-13</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.603162047558726e-13</v>
+        <v>1.63424829224823e-13</v>
       </c>
       <c r="P12" t="n">
         <v>-2.125842476303003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.3145267197618495, -1.9371582328441561]</t>
+          <t>[-2.3271056693257726, -1.924579283280233]</t>
         </is>
       </c>
       <c r="R12" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.87136036780301, 56.068956661881046]</t>
+          <t>[42.86682927076785, 56.0734877589162]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1500,10 +1500,10 @@
         <v>7.649829829829862</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.970850850850879</v>
+        <v>6.925585585585614</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.328808808808844</v>
+        <v>8.374074074074111</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_4_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_per_day_fixed_period_4_square_0_.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[53.14777310142459, 74.5921791779116]</t>
+          <t>[53.14558214611813, 74.59437013321806]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -627,7 +627,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[43.098336248067596, 56.90188764318687]</t>
+          <t>[43.08923715018399, 56.910986741070474]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -685,21 +685,21 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[53.07741293239641, 75.49464457501804]</t>
+          <t>[52.653758133809745, 75.91829937360471]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>1.643130076445232e-14</v>
       </c>
       <c r="P3" t="n">
         <v>1.842816111114733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6541318676558863, 2.0315003545735806]</t>
+          <t>[1.6667108172198093, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[41.96183359681138, 55.209697740524525]</t>
+          <t>[41.96219390529929, 55.20933743203662]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -726,10 +726,10 @@
         <v>16.38852852852866</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.69213213213225</v>
+        <v>15.73855855855868</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.08492492492507</v>
+        <v>17.03849849849864</v>
       </c>
     </row>
     <row r="4">
@@ -771,14 +771,14 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[52.399766137121645, 76.13739701406956]</t>
+          <t>[52.15709373705835, 76.38006941413286]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>6.217248937900877e-14</v>
       </c>
       <c r="P4" t="n">
         <v>2.031500354573581</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.51835659427349, 57.58220901451525]</t>
+          <t>[44.51770160670338, 57.58286400208536]</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[51.582113342013784, 76.54868206491851]</t>
+          <t>[51.66076415089449, 76.4700312560378]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.825206652483757e-13</v>
+        <v>1.48991929904696e-13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.825206652483757e-13</v>
+        <v>1.48991929904696e-13</v>
       </c>
       <c r="P5" t="n">
         <v>2.220184598032427</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.87515256901382, 55.73160650913795]</t>
+          <t>[42.878779453990674, 55.727979624161094]</t>
         </is>
       </c>
       <c r="V5" t="n">
@@ -943,21 +943,21 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[51.08086380268998, 76.05601861198937]</t>
+          <t>[51.25032386143917, 75.88655855324018]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.364775042451583e-13</v>
+        <v>1.527666881884215e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>2.364775042451583e-13</v>
+        <v>1.527666881884215e-13</v>
       </c>
       <c r="P6" t="n">
         <v>2.484342538874812</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.295658295415965, 2.6730267823336584]</t>
+          <t>[2.2956582954159654, 2.673026782333658]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[43.266828036950486, 56.07657796208319]</t>
+          <t>[43.259852419985116, 56.08355357904856]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -987,7 +987,7 @@
         <v>13.32438438438449</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.7171771771773</v>
+        <v>14.71717717717729</v>
       </c>
     </row>
     <row r="7">
@@ -1029,14 +1029,14 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[51.64426172206817, 74.9737189671556]</t>
+          <t>[51.41248376387884, 75.20549692534493]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>5.662137425588298e-14</v>
       </c>
       <c r="O7" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>5.662137425588298e-14</v>
       </c>
       <c r="P7" t="n">
         <v>2.622710984077965</v>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.39725752129752, 56.22740881366073]</t>
+          <t>[43.400587997314176, 56.22407833764407]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1115,14 +1115,14 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[51.95048350600315, 73.8849956797687]</t>
+          <t>[52.11678020027979, 73.71869898549207]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="O8" t="n">
-        <v>4.662936703425657e-15</v>
+        <v>2.886579864025407e-15</v>
       </c>
       <c r="P8" t="n">
         <v>2.899447874484274</v>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.55040145407687, 56.43531976332853]</t>
+          <t>[43.5516084683446, 56.4341127490608]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[52.36192544180358, 71.91895337287757]</t>
+          <t>[51.84695448560112, 72.43392432908003]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="P9" t="n">
         <v>3.012658420559582</v>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.9956065947495, 55.830204328551574]</t>
+          <t>[42.99138405608342, 55.83442686721766]</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -1287,14 +1287,14 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[52.745301513467325, 72.92474356988734]</t>
+          <t>[51.895384320246876, 73.77466076310779]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.440892098500626e-15</v>
       </c>
       <c r="P10" t="n">
         <v>-2.918316298830158</v>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.9458167579161, 57.68321276229904]</t>
+          <t>[44.94192966817777, 57.68709985203737]</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[52.15533663150874, 75.91184040506133]</t>
+          <t>[51.63294159904075, 76.43423543752931]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="O11" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>1.498801083243961e-13</v>
       </c>
       <c r="P11" t="n">
         <v>-2.503210963220696</v>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.23652777842656, 56.95498595261816]</t>
+          <t>[44.23687015283275, 56.95464357821197]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1459,14 +1459,14 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[52.15418165874416, 77.28955437378619]</t>
+          <t>[51.98161914659097, 77.46211688593938]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>2.522426711948356e-13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.63424829224823e-13</v>
+        <v>2.522426711948356e-13</v>
       </c>
       <c r="P12" t="n">
         <v>-2.125842476303003</v>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.86682927076785, 56.0734877589162]</t>
+          <t>[42.869634594416354, 56.0706824352677]</t>
         </is>
       </c>
       <c r="V12" t="n">
